--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111528854</v>
+        <v>111529102</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521760.8447419782</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R2" t="n">
-        <v>6932981.122429932</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111528912</v>
+        <v>111530055</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521760.8447419782</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R3" t="n">
-        <v>6932981.122429932</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111530091</v>
+        <v>111529036</v>
       </c>
       <c r="B4" t="n">
-        <v>96265</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,39 +923,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219790</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521631.7403301761</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R4" t="n">
-        <v>6932783.583963586</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +995,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +1005,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111529833</v>
+        <v>111528621</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521691.0637690722</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R5" t="n">
-        <v>6932904.482706619</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1108,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1118,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,7 +1145,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111529232</v>
+        <v>111530674</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1178,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521765.8673893587</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R6" t="n">
-        <v>6932920.20856732</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1221,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1231,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,7 +1258,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111528599</v>
+        <v>111528341</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1291,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521731.5804727955</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R7" t="n">
-        <v>6933001.708009128</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1334,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1344,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111529110</v>
+        <v>111529807</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,35 +1392,40 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521759.7961036987</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R8" t="n">
-        <v>6933000.045767426</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1439,7 +1457,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1467,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,7 +1494,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111529102</v>
+        <v>111528093</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1517,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521752.9121707152</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R9" t="n">
-        <v>6932992.151611731</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1552,7 +1570,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,12 +1580,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111530580</v>
+        <v>111529232</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1619,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521691.8120759086</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R10" t="n">
-        <v>6933002.371651054</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,12 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1712,10 +1720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111529275</v>
+        <v>111528391</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,21 +1736,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1761,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521739.0955443635</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R11" t="n">
-        <v>6932913.10752542</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1788,7 +1796,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1798,7 +1806,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,10 +1833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528048</v>
+        <v>111528655</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1845,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1874,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521733.8297099661</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R12" t="n">
-        <v>6933152.698685254</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1901,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1911,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528341</v>
+        <v>111528165</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,21 +1962,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521697.8208594618</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R13" t="n">
-        <v>6933073.513530068</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2022,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,12 +2032,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2056,10 +2059,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111530521</v>
+        <v>111528912</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2068,25 +2071,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2097,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521699.6992055195</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R14" t="n">
-        <v>6932998.267737272</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2132,7 +2135,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2142,7 +2145,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2169,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111528181</v>
+        <v>111530091</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>96265</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2181,25 +2184,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>219790</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2210,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521735.3223788696</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R15" t="n">
-        <v>6933136.54926595</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2245,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2255,7 +2258,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2282,10 +2285,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111529807</v>
+        <v>111529275</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2298,40 +2301,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521691.0637690722</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R16" t="n">
-        <v>6932904.482706619</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2363,7 +2361,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2373,7 +2371,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2513,10 +2511,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111529036</v>
+        <v>111529833</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2529,43 +2527,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521752.9121707152</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R18" t="n">
-        <v>6932992.151611731</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2597,7 +2587,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2607,7 +2597,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2634,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111528621</v>
+        <v>111530521</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2646,25 +2636,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2675,10 +2665,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521727.0354101869</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R19" t="n">
-        <v>6932989.673796575</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2710,7 +2700,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2720,7 +2710,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2747,7 +2737,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111530055</v>
+        <v>111528599</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2788,10 +2778,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521631.7403301761</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R20" t="n">
-        <v>6932783.583963586</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2823,7 +2813,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2833,7 +2823,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2860,10 +2850,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528391</v>
+        <v>111529110</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2876,21 +2866,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2901,10 +2891,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521709.7594058813</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R21" t="n">
-        <v>6933015.416698807</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2936,7 +2926,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2946,7 +2936,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2973,10 +2963,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111528470</v>
+        <v>111529762</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2989,21 +2979,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3014,10 +3004,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521731.5804727955</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R22" t="n">
-        <v>6933001.708009128</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3049,7 +3039,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3059,12 +3049,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3091,10 +3076,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111528655</v>
+        <v>111529002</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3107,21 +3092,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3132,10 +3117,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521763.3891223649</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R23" t="n">
-        <v>6933016.229136354</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3167,7 +3152,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3177,7 +3162,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3204,10 +3194,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111529002</v>
+        <v>111528854</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3216,25 +3206,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3245,10 +3235,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521751.8847309864</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R24" t="n">
-        <v>6933007.843059707</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3295,7 +3285,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3435,10 +3425,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111529762</v>
+        <v>111528048</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3447,25 +3437,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3466,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521721.9246586408</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R26" t="n">
-        <v>6932922.691434066</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3511,7 +3501,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3521,7 +3511,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3548,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111528093</v>
+        <v>111528470</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3560,25 +3550,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3589,10 +3579,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521725.2807884938</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R27" t="n">
-        <v>6933116.630797192</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3624,7 +3614,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3634,7 +3624,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3661,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111530674</v>
+        <v>111530580</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3673,25 +3668,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3702,10 +3697,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521658.0292638988</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R28" t="n">
-        <v>6933077.870999371</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3748,6 +3743,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3774,10 +3774,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528496</v>
+        <v>111528181</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3790,21 +3790,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521731.5804727955</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R29" t="n">
-        <v>6933001.708009128</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3887,10 +3887,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111528165</v>
+        <v>111528496</v>
       </c>
       <c r="B30" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3899,25 +3899,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R30" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111529102</v>
+        <v>111528165</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521752.9121707152</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R2" t="n">
-        <v>6932992.151611731</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111530055</v>
+        <v>111528341</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521631.7403301761</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R3" t="n">
-        <v>6932783.583963586</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111529036</v>
+        <v>111530580</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,47 +923,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521752.9121707152</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R4" t="n">
-        <v>6932992.151611731</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -995,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1005,7 +997,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1032,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528621</v>
+        <v>111528912</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1073,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521727.0354101869</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R5" t="n">
-        <v>6932989.673796575</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1108,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1118,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111530674</v>
+        <v>111530055</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1157,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1186,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521658.0292638988</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R6" t="n">
-        <v>6933077.870999371</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1221,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1231,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111528341</v>
+        <v>111529002</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521697.8208594618</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R7" t="n">
-        <v>6933073.513530068</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1334,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1344,12 +1341,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>God förekomst</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1494,10 +1491,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111528093</v>
+        <v>111529325</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,25 +1503,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1535,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521725.2807884938</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R9" t="n">
-        <v>6933116.630797192</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1570,7 +1567,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1580,7 +1577,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1607,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111529232</v>
+        <v>111528599</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,25 +1616,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1645,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521765.8673893587</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R10" t="n">
-        <v>6932920.20856732</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1683,7 +1680,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1690,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528391</v>
+        <v>111529036</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,35 +1733,43 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521709.7594058813</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R11" t="n">
-        <v>6933015.416698807</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1796,7 +1801,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1806,7 +1811,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1833,10 +1838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528655</v>
+        <v>111528048</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,25 +1850,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1874,10 +1879,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521763.3891223649</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R12" t="n">
-        <v>6933016.229136354</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1909,7 +1914,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1924,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528165</v>
+        <v>111529762</v>
       </c>
       <c r="B13" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1958,25 +1963,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521735.3223788696</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R13" t="n">
-        <v>6933136.54926595</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2022,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2032,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2059,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111528912</v>
+        <v>111529102</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2071,25 +2076,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2105,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521760.8447419782</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R14" t="n">
-        <v>6932981.122429932</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2135,7 +2140,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2145,7 +2150,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2172,10 +2182,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111530091</v>
+        <v>111529833</v>
       </c>
       <c r="B15" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,25 +2194,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2213,10 +2223,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521631.7403301761</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R15" t="n">
-        <v>6932783.583963586</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2248,7 +2258,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,7 +2268,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2285,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111529275</v>
+        <v>111530521</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2297,25 +2307,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2326,10 +2336,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521739.0955443635</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R16" t="n">
-        <v>6932913.10752542</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2361,7 +2371,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2371,7 +2381,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,10 +2408,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111530162</v>
+        <v>111528391</v>
       </c>
       <c r="B17" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2410,25 +2420,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2439,10 +2449,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521607.0389203697</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R17" t="n">
-        <v>6932813.436312458</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2474,7 +2484,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2484,7 +2494,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2511,7 +2521,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111529833</v>
+        <v>111529301</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2552,10 +2562,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521691.0637690722</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R18" t="n">
-        <v>6932904.482706619</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2587,7 +2597,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2597,7 +2607,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2624,10 +2634,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111530521</v>
+        <v>111529232</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,25 +2646,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2665,10 +2675,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521699.6992055195</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R19" t="n">
-        <v>6932998.267737272</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2700,7 +2710,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2710,7 +2720,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2737,10 +2747,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111528599</v>
+        <v>111530091</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2749,25 +2759,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2778,10 +2788,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521731.5804727955</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R20" t="n">
-        <v>6933001.708009128</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,7 +2823,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2823,7 +2833,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2850,10 +2860,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111529110</v>
+        <v>111528854</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2862,25 +2872,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2891,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521759.7961036987</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R21" t="n">
-        <v>6933000.045767426</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2926,7 +2936,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2936,7 +2946,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2963,10 +2978,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111529762</v>
+        <v>111528093</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2975,25 +2990,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3004,10 +3019,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521721.9246586408</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R22" t="n">
-        <v>6932922.691434066</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3039,7 +3054,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3049,7 +3064,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3076,7 +3091,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111529002</v>
+        <v>111528470</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3117,10 +3132,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521751.8847309864</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R23" t="n">
-        <v>6933007.843059707</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3152,7 +3167,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3162,7 +3177,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3194,10 +3209,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111528854</v>
+        <v>111528655</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3206,25 +3221,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3235,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521760.8447419782</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R24" t="n">
-        <v>6932981.122429932</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3270,7 +3285,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3280,12 +3295,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3312,10 +3322,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111529301</v>
+        <v>111528496</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3328,21 +3338,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3353,10 +3363,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521739.0955443635</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R25" t="n">
-        <v>6932913.10752542</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3388,7 +3398,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3398,7 +3408,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3425,10 +3435,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111528048</v>
+        <v>111528181</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,25 +3447,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3466,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521733.8297099661</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R26" t="n">
-        <v>6933152.698685254</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3501,7 +3511,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3511,7 +3521,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3538,10 +3548,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111528470</v>
+        <v>111528621</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3554,21 +3564,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3579,10 +3589,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521731.5804727955</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R27" t="n">
-        <v>6933001.708009128</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3614,7 +3624,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3624,12 +3634,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3656,10 +3661,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111530580</v>
+        <v>111529110</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,25 +3673,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3697,10 +3702,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521691.8120759086</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R28" t="n">
-        <v>6933002.371651054</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3732,7 +3737,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3742,12 +3747,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3774,10 +3774,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528181</v>
+        <v>111530162</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>89369</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>5447</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521735.3223788696</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R29" t="n">
-        <v>6933136.54926595</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3887,7 +3887,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111528496</v>
+        <v>111530674</v>
       </c>
       <c r="B30" t="n">
         <v>78578</v>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521731.5804727955</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R30" t="n">
-        <v>6933001.708009128</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111528165</v>
+        <v>111529232</v>
       </c>
       <c r="B2" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521735.3223788696</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R2" t="n">
-        <v>6933136.54926595</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111528341</v>
+        <v>111528655</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521697.8208594618</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R3" t="n">
-        <v>6933073.513530068</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111530580</v>
+        <v>111530091</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521691.8120759086</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R4" t="n">
-        <v>6933002.371651054</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,12 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528912</v>
+        <v>111530521</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521760.8447419782</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R5" t="n">
-        <v>6932981.122429932</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1105,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111530055</v>
+        <v>111528048</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1183,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521631.7403301761</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R6" t="n">
-        <v>6932783.583963586</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111529002</v>
+        <v>111529301</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521751.8847309864</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R7" t="n">
-        <v>6933007.843059707</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,12 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111529807</v>
+        <v>111528093</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1385,44 +1370,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521691.0637690722</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R8" t="n">
-        <v>6932904.482706619</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1454,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1464,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111529325</v>
+        <v>111530055</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1503,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521739.0955443635</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R9" t="n">
-        <v>6932913.10752542</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1567,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1577,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528599</v>
+        <v>111528165</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1645,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521731.5804727955</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R10" t="n">
-        <v>6933001.708009128</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1680,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1690,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1838,10 +1818,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528048</v>
+        <v>111529762</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1850,25 +1830,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1879,10 +1859,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521733.8297099661</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R12" t="n">
-        <v>6933152.698685254</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1914,7 +1894,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1924,7 +1904,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,7 +1931,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111529762</v>
+        <v>111530674</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1992,10 +1972,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521721.9246586408</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R13" t="n">
-        <v>6932922.691434066</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2027,7 +2007,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2017,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2064,10 +2044,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111529102</v>
+        <v>111529325</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,25 +2056,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2105,10 +2085,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521752.9121707152</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R14" t="n">
-        <v>6932992.151611731</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2151,11 +2131,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2182,10 +2157,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111529833</v>
+        <v>111530162</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2194,25 +2169,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2223,10 +2198,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521691.0637690722</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R15" t="n">
-        <v>6932904.482706619</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2258,7 +2233,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2268,7 +2243,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2295,7 +2270,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111530521</v>
+        <v>111528599</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2336,10 +2311,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521699.6992055195</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R16" t="n">
-        <v>6932998.267737272</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2371,7 +2346,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2381,7 +2356,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2408,10 +2383,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111528391</v>
+        <v>111529110</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2424,21 +2399,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2449,10 +2424,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521709.7594058813</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R17" t="n">
-        <v>6933015.416698807</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2484,7 +2459,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2494,7 +2469,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2521,10 +2496,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111529301</v>
+        <v>111528912</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,21 +2512,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2562,10 +2537,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521739.0955443635</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R18" t="n">
-        <v>6932913.10752542</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2597,7 +2572,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2607,7 +2582,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2634,10 +2609,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111529232</v>
+        <v>111529102</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2646,25 +2621,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2675,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521765.8673893587</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R19" t="n">
-        <v>6932920.20856732</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2721,6 +2696,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2747,10 +2727,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111530091</v>
+        <v>111528854</v>
       </c>
       <c r="B20" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2759,25 +2739,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2788,10 +2768,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521631.7403301761</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R20" t="n">
-        <v>6932783.583963586</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2823,7 +2803,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2833,7 +2813,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2860,7 +2845,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528854</v>
+        <v>111528341</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2901,10 +2886,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521760.8447419782</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R21" t="n">
-        <v>6932981.122429932</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2936,7 +2921,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2946,12 +2931,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2978,10 +2963,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111528093</v>
+        <v>111528496</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2990,25 +2975,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3019,10 +3004,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521725.2807884938</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R22" t="n">
-        <v>6933116.630797192</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3054,7 +3039,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3064,7 +3049,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3091,10 +3076,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111528470</v>
+        <v>111528391</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3107,21 +3092,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3132,10 +3117,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521731.5804727955</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R23" t="n">
-        <v>6933001.708009128</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3167,7 +3152,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3177,12 +3162,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3209,10 +3189,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111528655</v>
+        <v>111530580</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3221,25 +3201,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3250,10 +3230,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521763.3891223649</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R24" t="n">
-        <v>6933016.229136354</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3285,7 +3265,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3295,7 +3275,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3322,10 +3307,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111528496</v>
+        <v>111529833</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3338,21 +3323,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3363,10 +3348,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521731.5804727955</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R25" t="n">
-        <v>6933001.708009128</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3398,7 +3383,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3408,7 +3393,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3435,10 +3420,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111528181</v>
+        <v>111529002</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3451,21 +3436,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3461,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521735.3223788696</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R26" t="n">
-        <v>6933136.54926595</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3511,7 +3496,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3521,7 +3506,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3661,10 +3651,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111529110</v>
+        <v>111529807</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3677,35 +3667,40 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521759.7961036987</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R28" t="n">
-        <v>6933000.045767426</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3737,7 +3732,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3747,7 +3742,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3774,10 +3769,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111530162</v>
+        <v>111528181</v>
       </c>
       <c r="B29" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3786,25 +3781,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3815,10 +3810,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521607.0389203697</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R29" t="n">
-        <v>6932813.436312458</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3850,7 +3845,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3860,7 +3855,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3887,10 +3882,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111530674</v>
+        <v>111528470</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3903,21 +3898,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3928,10 +3923,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521658.0292638988</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R30" t="n">
-        <v>6933077.870999371</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3958,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3968,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111529232</v>
+        <v>111530580</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521765.8673893587</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R2" t="n">
-        <v>6932920.20856732</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111528655</v>
+        <v>111530674</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521763.3891223649</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R3" t="n">
-        <v>6933016.229136354</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111530091</v>
+        <v>111529102</v>
       </c>
       <c r="B4" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521631.7403301761</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R4" t="n">
-        <v>6932783.583963586</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +997,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111530521</v>
+        <v>111528391</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1041,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521699.6992055195</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R5" t="n">
-        <v>6932998.267737272</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111528048</v>
+        <v>111528181</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521733.8297099661</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R6" t="n">
-        <v>6933152.698685254</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111529301</v>
+        <v>111528621</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521739.0955443635</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R7" t="n">
-        <v>6932913.10752542</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1368,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111528093</v>
+        <v>111528341</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1399,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521725.2807884938</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R8" t="n">
-        <v>6933116.630797192</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1454,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111530055</v>
+        <v>111529110</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1498,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521631.7403301761</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R9" t="n">
-        <v>6932783.583963586</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1562,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1572,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528165</v>
+        <v>111528854</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521735.3223788696</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R10" t="n">
-        <v>6933136.54926595</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1685,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111529036</v>
+        <v>111528470</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,43 +1733,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521752.9121707152</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R11" t="n">
-        <v>6932992.151611731</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1791,7 +1803,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1818,7 +1835,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111529762</v>
+        <v>111529232</v>
       </c>
       <c r="B12" t="n">
         <v>78578</v>
@@ -1859,10 +1876,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521721.9246586408</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R12" t="n">
-        <v>6932922.691434066</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1894,7 +1911,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1904,7 +1921,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1931,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111530674</v>
+        <v>111529833</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1947,21 +1964,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1972,10 +1989,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521658.0292638988</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R13" t="n">
-        <v>6933077.870999371</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2007,7 +2024,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2017,7 +2034,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2044,7 +2061,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111529325</v>
+        <v>111529290</v>
       </c>
       <c r="B14" t="n">
         <v>78578</v>
@@ -2157,10 +2174,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111530162</v>
+        <v>111528496</v>
       </c>
       <c r="B15" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2169,25 +2186,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2198,10 +2215,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521607.0389203697</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R15" t="n">
-        <v>6932813.436312458</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2233,7 +2250,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2243,7 +2260,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2270,10 +2287,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111528599</v>
+        <v>111528896</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2282,25 +2299,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2311,10 +2328,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521731.5804727955</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R16" t="n">
-        <v>6933001.708009128</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2346,7 +2363,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2356,7 +2373,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2383,10 +2400,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111529110</v>
+        <v>111529002</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2399,21 +2416,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2424,10 +2441,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521759.7961036987</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R17" t="n">
-        <v>6933000.045767426</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2459,7 +2476,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2469,7 +2486,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2496,10 +2518,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111528912</v>
+        <v>111528048</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2508,25 +2530,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2537,10 +2559,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521760.8447419782</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R18" t="n">
-        <v>6932981.122429932</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2572,7 +2594,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2582,7 +2604,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2609,7 +2631,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111529102</v>
+        <v>111528093</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2650,10 +2672,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521752.9121707152</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R19" t="n">
-        <v>6932992.151611731</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2685,7 +2707,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2695,12 +2717,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2727,10 +2744,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111528854</v>
+        <v>111530091</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2739,25 +2756,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2768,10 +2785,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521760.8447419782</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R20" t="n">
-        <v>6932981.122429932</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2803,7 +2820,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2813,12 +2830,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2845,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528341</v>
+        <v>111528655</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2857,25 +2869,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2886,10 +2898,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521697.8208594618</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R21" t="n">
-        <v>6933073.513530068</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2921,7 +2933,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2931,12 +2943,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2963,10 +2970,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111528496</v>
+        <v>111528165</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2975,25 +2982,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3004,10 +3011,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521731.5804727955</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R22" t="n">
-        <v>6933001.708009128</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3039,7 +3046,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3049,7 +3056,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3076,10 +3083,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111528391</v>
+        <v>111530162</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3088,25 +3095,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3117,10 +3124,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521709.7594058813</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R23" t="n">
-        <v>6933015.416698807</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3152,7 +3159,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3162,7 +3169,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3189,10 +3196,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111530580</v>
+        <v>111529301</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3201,25 +3208,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3230,10 +3237,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521691.8120759086</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R24" t="n">
-        <v>6933002.371651054</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3265,7 +3272,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3275,12 +3282,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3307,10 +3309,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111529833</v>
+        <v>111530055</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3319,25 +3321,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3348,10 +3350,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521691.0637690722</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R25" t="n">
-        <v>6932904.482706619</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3383,7 +3385,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3393,7 +3395,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3420,10 +3422,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111529002</v>
+        <v>111529807</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3436,35 +3438,40 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521751.8847309864</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R26" t="n">
-        <v>6933007.843059707</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3496,7 +3503,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3506,12 +3513,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3538,10 +3540,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111528621</v>
+        <v>111529036</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3554,35 +3556,43 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521727.0354101869</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R27" t="n">
-        <v>6932989.673796575</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3614,7 +3624,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3624,7 +3634,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3651,10 +3661,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111529807</v>
+        <v>111529762</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3667,40 +3677,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521691.0637690722</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R28" t="n">
-        <v>6932904.482706619</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3769,10 +3774,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528181</v>
+        <v>111528599</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3781,25 +3786,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3810,10 +3815,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R29" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3845,7 +3850,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3855,7 +3860,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3882,10 +3887,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111528470</v>
+        <v>111530521</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3894,25 +3899,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3923,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521731.5804727955</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R30" t="n">
-        <v>6933001.708009128</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3958,7 +3963,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3968,12 +3973,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111530580</v>
+        <v>111529275</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521691.8120759086</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R2" t="n">
-        <v>6933002.371651054</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111530674</v>
+        <v>111528912</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521658.0292638988</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R3" t="n">
-        <v>6933077.870999371</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111529102</v>
+        <v>111528093</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521752.9121707152</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R4" t="n">
-        <v>6932992.151611731</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,12 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528391</v>
+        <v>111528181</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521709.7594058813</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R5" t="n">
-        <v>6933015.416698807</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1105,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111528181</v>
+        <v>111528470</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R6" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1218,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111528621</v>
+        <v>111530580</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521727.0354101869</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R7" t="n">
-        <v>6932989.673796575</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1336,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111528341</v>
+        <v>111530162</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521697.8208594618</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R8" t="n">
-        <v>6933073.513530068</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,12 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1486,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111529110</v>
+        <v>111529102</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521759.7961036987</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R9" t="n">
-        <v>6933000.045767426</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1573,6 +1568,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528854</v>
+        <v>111528165</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521760.8447419782</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R10" t="n">
-        <v>6932981.122429932</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,12 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1717,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528470</v>
+        <v>111529762</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,21 +1728,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1758,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521731.5804727955</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R11" t="n">
-        <v>6933001.708009128</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1793,7 +1788,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1803,12 +1798,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1835,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111529232</v>
+        <v>111528599</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521765.8673893587</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R12" t="n">
-        <v>6932920.20856732</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1911,7 +1901,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1921,7 +1911,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1948,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111529833</v>
+        <v>111529232</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1989,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521691.0637690722</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R13" t="n">
-        <v>6932904.482706619</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2024,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2034,7 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2061,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111529290</v>
+        <v>111529833</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2077,21 +2067,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2102,10 +2092,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521739.0955443635</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R14" t="n">
-        <v>6932913.10752542</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2137,7 +2127,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2147,7 +2137,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2174,10 +2164,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111528496</v>
+        <v>111529036</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2190,35 +2180,43 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521731.5804727955</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R15" t="n">
-        <v>6933001.708009128</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2250,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2260,7 +2258,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2287,10 +2285,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111528896</v>
+        <v>111529807</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2303,35 +2301,40 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521760.8447419782</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R16" t="n">
-        <v>6932981.122429932</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2363,7 +2366,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2373,7 +2376,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2400,10 +2403,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111529002</v>
+        <v>111528621</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2416,21 +2419,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2441,10 +2444,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521751.8847309864</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R17" t="n">
-        <v>6933007.843059707</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2476,7 +2479,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2486,12 +2489,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2518,10 +2516,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111528048</v>
+        <v>111529002</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2530,25 +2528,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2559,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521733.8297099661</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R18" t="n">
-        <v>6933152.698685254</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2594,7 +2592,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2604,7 +2602,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2631,7 +2634,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111528093</v>
+        <v>111530521</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2672,10 +2675,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521725.2807884938</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R19" t="n">
-        <v>6933116.630797192</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2717,7 +2720,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,10 +2747,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111530091</v>
+        <v>111530674</v>
       </c>
       <c r="B20" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2756,25 +2759,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2785,10 +2788,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521631.7403301761</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R20" t="n">
-        <v>6932783.583963586</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2830,7 +2833,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2857,10 +2860,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528655</v>
+        <v>111528341</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2869,25 +2872,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2898,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521763.3891223649</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R21" t="n">
-        <v>6933016.229136354</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2933,7 +2936,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2943,7 +2946,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2970,10 +2978,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111528165</v>
+        <v>111528496</v>
       </c>
       <c r="B22" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2982,25 +2990,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3011,10 +3019,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R22" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3046,7 +3054,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3056,7 +3064,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3083,10 +3091,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111530162</v>
+        <v>111530091</v>
       </c>
       <c r="B23" t="n">
-        <v>89369</v>
+        <v>96265</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3099,21 +3107,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>219790</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3124,10 +3132,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521607.0389203697</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R23" t="n">
-        <v>6932813.436312458</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3196,10 +3204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111529301</v>
+        <v>111528048</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3208,25 +3216,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3237,10 +3245,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521739.0955443635</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R24" t="n">
-        <v>6932913.10752542</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3272,7 +3280,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3282,7 +3290,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3309,10 +3317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111530055</v>
+        <v>111529301</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3321,25 +3329,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3350,10 +3358,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521631.7403301761</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R25" t="n">
-        <v>6932783.583963586</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3385,7 +3393,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3395,7 +3403,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3422,10 +3430,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111529807</v>
+        <v>111528391</v>
       </c>
       <c r="B26" t="n">
-        <v>56543</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3438,40 +3446,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521691.0637690722</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R26" t="n">
-        <v>6932904.482706619</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3503,7 +3506,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3513,7 +3516,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3540,10 +3543,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111529036</v>
+        <v>111529110</v>
       </c>
       <c r="B27" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3556,43 +3559,35 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521752.9121707152</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R27" t="n">
-        <v>6932992.151611731</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3624,7 +3619,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3634,7 +3629,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3661,7 +3656,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111529762</v>
+        <v>111528655</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3702,10 +3697,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521721.9246586408</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R28" t="n">
-        <v>6932922.691434066</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3737,7 +3732,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3747,7 +3742,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3774,7 +3769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528599</v>
+        <v>111528854</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3815,10 +3810,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521731.5804727955</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R29" t="n">
-        <v>6933001.708009128</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3850,7 +3845,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3860,7 +3855,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3887,7 +3887,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111530521</v>
+        <v>111530055</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521699.6992055195</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R30" t="n">
-        <v>6932998.267737272</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -2516,10 +2516,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111529002</v>
+        <v>111530521</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2528,25 +2528,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521751.8847309864</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R18" t="n">
-        <v>6933007.843059707</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2602,12 +2602,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2634,10 +2629,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111530521</v>
+        <v>111529002</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2646,25 +2641,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2675,10 +2670,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521699.6992055195</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R19" t="n">
-        <v>6932998.267737272</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2710,7 +2705,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2720,7 +2715,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111529275</v>
+        <v>111528599</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521739.0955443635</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R2" t="n">
-        <v>6932913.10752542</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111528912</v>
+        <v>111528181</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521760.8447419782</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R3" t="n">
-        <v>6932981.122429932</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111528093</v>
+        <v>111528165</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521725.2807884938</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R4" t="n">
-        <v>6933116.630797192</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528181</v>
+        <v>111528496</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R5" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111528470</v>
+        <v>111528093</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521731.5804727955</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R6" t="n">
-        <v>6933001.708009128</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,12 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111530580</v>
+        <v>111528341</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1291,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521691.8120759086</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R7" t="n">
-        <v>6933002.371651054</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,12 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111530162</v>
+        <v>111528854</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521607.0389203697</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R8" t="n">
-        <v>6932813.436312458</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1449,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111529102</v>
+        <v>111529301</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521752.9121707152</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R9" t="n">
-        <v>6932992.151611731</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1568,11 +1568,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528165</v>
+        <v>111528391</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1606,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521735.3223788696</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R10" t="n">
-        <v>6933136.54926595</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1680,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1712,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111529762</v>
+        <v>111529002</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,21 +1723,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521721.9246586408</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R11" t="n">
-        <v>6932922.691434066</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1788,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1798,7 +1793,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528599</v>
+        <v>111528621</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521731.5804727955</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R12" t="n">
-        <v>6933001.708009128</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111529232</v>
+        <v>111530091</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521765.8673893587</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R13" t="n">
-        <v>6932920.20856732</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2051,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111529833</v>
+        <v>111529807</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2067,25 +2067,30 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
@@ -2127,7 +2132,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2137,7 +2142,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2164,10 +2169,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111529036</v>
+        <v>111530162</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2176,47 +2181,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521752.9121707152</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R15" t="n">
-        <v>6932992.151611731</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2248,7 +2245,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,7 +2255,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2285,10 +2282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111529807</v>
+        <v>111530580</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2297,44 +2294,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521691.0637690722</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R16" t="n">
-        <v>6932904.482706619</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2366,7 +2358,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2376,7 +2368,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2403,10 +2400,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111528621</v>
+        <v>111530521</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2415,25 +2412,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2444,10 +2441,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521727.0354101869</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R17" t="n">
-        <v>6932989.673796575</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2479,7 +2476,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2489,7 +2486,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2516,7 +2513,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111530521</v>
+        <v>111530055</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2557,10 +2554,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521699.6992055195</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R18" t="n">
-        <v>6932998.267737272</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2592,7 +2589,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2602,7 +2599,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2629,10 +2626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111529002</v>
+        <v>111529325</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2645,21 +2642,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2670,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521751.8847309864</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R19" t="n">
-        <v>6933007.843059707</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2705,7 +2702,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2715,12 +2712,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2747,7 +2739,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111530674</v>
+        <v>111528655</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2788,10 +2780,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521658.0292638988</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R20" t="n">
-        <v>6933077.870999371</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2823,7 +2815,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2833,7 +2825,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2860,10 +2852,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528341</v>
+        <v>111528912</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2872,25 +2864,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2901,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521697.8208594618</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R21" t="n">
-        <v>6933073.513530068</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2936,7 +2928,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2946,12 +2938,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2978,10 +2965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111528496</v>
+        <v>111529036</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2994,35 +2981,43 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521731.5804727955</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R22" t="n">
-        <v>6933001.708009128</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3054,7 +3049,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3064,7 +3059,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3091,10 +3086,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111530091</v>
+        <v>111529762</v>
       </c>
       <c r="B23" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3103,25 +3098,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3132,10 +3127,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521631.7403301761</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R23" t="n">
-        <v>6932783.583963586</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3167,7 +3162,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3177,7 +3172,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3204,10 +3199,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111528048</v>
+        <v>111530674</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3216,25 +3211,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3245,10 +3240,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521733.8297099661</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R24" t="n">
-        <v>6933152.698685254</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3280,7 +3275,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3290,7 +3285,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3317,7 +3312,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111529301</v>
+        <v>111529833</v>
       </c>
       <c r="B25" t="n">
         <v>77515</v>
@@ -3358,10 +3353,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521739.0955443635</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R25" t="n">
-        <v>6932913.10752542</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3393,7 +3388,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3403,7 +3398,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3430,10 +3425,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111528391</v>
+        <v>111529110</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3446,21 +3441,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3471,10 +3466,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521709.7594058813</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R26" t="n">
-        <v>6933015.416698807</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3506,7 +3501,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3516,7 +3511,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3543,10 +3538,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111529110</v>
+        <v>111529102</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3555,25 +3550,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3584,10 +3579,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521759.7961036987</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R27" t="n">
-        <v>6933000.045767426</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3630,6 +3625,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3656,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111528655</v>
+        <v>111528048</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,25 +3668,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521763.3891223649</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R28" t="n">
-        <v>6933016.229136354</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3769,10 +3769,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528854</v>
+        <v>111528470</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3781,25 +3781,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3810,10 +3810,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521760.8447419782</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R29" t="n">
-        <v>6932981.122429932</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3887,10 +3887,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111530055</v>
+        <v>111529232</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3899,25 +3899,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521631.7403301761</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R30" t="n">
-        <v>6932783.583963586</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111528599</v>
+        <v>111528048</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521731.5804727955</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R2" t="n">
-        <v>6933001.708009128</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111528181</v>
+        <v>111529110</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521735.3223788696</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R3" t="n">
-        <v>6933136.54926595</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111528165</v>
+        <v>111528655</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521735.3223788696</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R4" t="n">
-        <v>6933136.54926595</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528496</v>
+        <v>111528854</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521731.5804727955</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R5" t="n">
-        <v>6933001.708009128</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111528093</v>
+        <v>111529002</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521725.2807884938</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R6" t="n">
-        <v>6933116.630797192</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1223,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111528341</v>
+        <v>111529325</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521697.8208594618</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R7" t="n">
-        <v>6933073.513530068</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,12 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111528854</v>
+        <v>111530162</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521760.8447419782</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R8" t="n">
-        <v>6932981.122429932</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1439,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,12 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1594,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528391</v>
+        <v>111528470</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521709.7594058813</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R10" t="n">
-        <v>6933015.416698807</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1680,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111529002</v>
+        <v>111528391</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,21 +1728,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521751.8847309864</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R11" t="n">
-        <v>6933007.843059707</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1783,7 +1788,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,12 +1798,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528621</v>
+        <v>111530055</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521727.0354101869</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R12" t="n">
-        <v>6932989.673796575</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111530091</v>
+        <v>111528599</v>
       </c>
       <c r="B13" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521631.7403301761</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R13" t="n">
-        <v>6932783.583963586</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2051,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111529807</v>
+        <v>111528896</v>
       </c>
       <c r="B14" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2067,40 +2067,35 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521691.0637690722</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R14" t="n">
-        <v>6932904.482706619</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2132,7 +2127,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2142,7 +2137,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2169,10 +2164,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111530162</v>
+        <v>111528165</v>
       </c>
       <c r="B15" t="n">
-        <v>89369</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2181,25 +2176,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2210,10 +2205,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521607.0389203697</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R15" t="n">
-        <v>6932813.436312458</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2245,7 +2240,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2255,7 +2250,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2282,10 +2277,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111530580</v>
+        <v>111529807</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2294,39 +2289,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521691.8120759086</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R16" t="n">
-        <v>6933002.371651054</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2368,12 +2368,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2400,10 +2395,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111530521</v>
+        <v>111530674</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,25 +2407,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2441,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521699.6992055195</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R17" t="n">
-        <v>6932998.267737272</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2476,7 +2471,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2486,7 +2481,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2513,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111530055</v>
+        <v>111528621</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2525,25 +2520,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2554,10 +2549,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521631.7403301761</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R18" t="n">
-        <v>6932783.583963586</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2589,7 +2584,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2599,7 +2594,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2626,10 +2621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111529325</v>
+        <v>111528181</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2642,21 +2637,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2667,10 +2662,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521739.0955443635</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R19" t="n">
-        <v>6932913.10752542</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2702,7 +2697,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2712,7 +2707,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2739,10 +2734,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111528655</v>
+        <v>111529102</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2751,25 +2746,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2780,10 +2775,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521763.3891223649</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R20" t="n">
-        <v>6933016.229136354</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2815,7 +2810,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2825,7 +2820,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2852,10 +2852,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528912</v>
+        <v>111530580</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2864,25 +2864,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521760.8447419782</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R21" t="n">
-        <v>6932981.122429932</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2938,7 +2938,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2965,10 +2970,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111529036</v>
+        <v>111528496</v>
       </c>
       <c r="B22" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2981,43 +2986,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521752.9121707152</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R22" t="n">
-        <v>6932992.151611731</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3049,7 +3046,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3059,7 +3056,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3086,10 +3083,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111529762</v>
+        <v>111529036</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3102,35 +3099,43 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521721.9246586408</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R23" t="n">
-        <v>6932922.691434066</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3162,7 +3167,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3172,7 +3177,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3199,10 +3204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111530674</v>
+        <v>111529833</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3215,21 +3220,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3240,10 +3245,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521658.0292638988</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R24" t="n">
-        <v>6933077.870999371</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3275,7 +3280,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3285,7 +3290,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3312,10 +3317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111529833</v>
+        <v>111530521</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3324,25 +3329,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3353,10 +3358,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521691.0637690722</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R25" t="n">
-        <v>6932904.482706619</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3388,7 +3393,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3398,7 +3403,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3425,10 +3430,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111529110</v>
+        <v>111528093</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,25 +3442,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3466,10 +3471,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521759.7961036987</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R26" t="n">
-        <v>6933000.045767426</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3501,7 +3506,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3511,7 +3516,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3538,10 +3543,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111529102</v>
+        <v>111530091</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3550,25 +3555,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3579,10 +3584,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521752.9121707152</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R27" t="n">
-        <v>6932992.151611731</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3614,7 +3619,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3624,12 +3629,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3656,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111528048</v>
+        <v>111529762</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,25 +3668,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521733.8297099661</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R28" t="n">
-        <v>6933152.698685254</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3769,10 +3769,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528470</v>
+        <v>111528341</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3781,25 +3781,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3810,10 +3810,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521731.5804727955</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R29" t="n">
-        <v>6933001.708009128</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111528048</v>
+        <v>111530674</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521733.8297099661</v>
+        <v>521658.0292638988</v>
       </c>
       <c r="R2" t="n">
-        <v>6933152.698685254</v>
+        <v>6933077.870999371</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111529110</v>
+        <v>111529762</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521759.7961036987</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R3" t="n">
-        <v>6933000.045767426</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111528655</v>
+        <v>111529110</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521763.3891223649</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R4" t="n">
-        <v>6933016.229136354</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528854</v>
+        <v>111530162</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521760.8447419782</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R5" t="n">
-        <v>6932981.122429932</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,12 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111529002</v>
+        <v>111528912</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521751.8847309864</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R6" t="n">
-        <v>6933007.843059707</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1224,11 +1219,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111529325</v>
+        <v>111528621</v>
       </c>
       <c r="B7" t="n">
         <v>78578</v>
@@ -1296,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521739.0955443635</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R7" t="n">
-        <v>6932913.10752542</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111530162</v>
+        <v>111529833</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521607.0389203697</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R8" t="n">
-        <v>6932813.436312458</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111529301</v>
+        <v>111528496</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521739.0955443635</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R9" t="n">
-        <v>6932913.10752542</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1557,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1567,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528470</v>
+        <v>111529002</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1635,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521731.5804727955</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R10" t="n">
-        <v>6933001.708009128</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1825,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111530055</v>
+        <v>111529275</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1827,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521631.7403301761</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R12" t="n">
-        <v>6932783.583963586</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1901,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1911,7 +1901,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1928,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528599</v>
+        <v>111528655</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,25 +1940,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1969,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521731.5804727955</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R13" t="n">
-        <v>6933001.708009128</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2051,10 +2041,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111528896</v>
+        <v>111528165</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2063,25 +2053,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2092,10 +2082,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521760.8447419782</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R14" t="n">
-        <v>6932981.122429932</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2127,7 +2117,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2137,7 +2127,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2164,10 +2154,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111528165</v>
+        <v>111528341</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2180,21 +2170,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2205,10 +2195,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521735.3223788696</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R15" t="n">
-        <v>6933136.54926595</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2240,7 +2230,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2250,7 +2240,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2277,10 +2272,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111529807</v>
+        <v>111528093</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2289,44 +2284,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521691.0637690722</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R16" t="n">
-        <v>6932904.482706619</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2358,7 +2348,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2368,7 +2358,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2395,10 +2385,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111530674</v>
+        <v>111529301</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2411,21 +2401,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2436,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521658.0292638988</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R17" t="n">
-        <v>6933077.870999371</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2471,7 +2461,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2481,7 +2471,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2508,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111528621</v>
+        <v>111528181</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2514,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2549,10 +2539,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521727.0354101869</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R18" t="n">
-        <v>6932989.673796575</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2584,7 +2574,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2594,7 +2584,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2621,10 +2611,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111528181</v>
+        <v>111528599</v>
       </c>
       <c r="B19" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2633,25 +2623,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2662,10 +2652,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R19" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2697,7 +2687,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2707,7 +2697,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2734,10 +2724,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111529102</v>
+        <v>111529036</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2746,29 +2736,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
@@ -2810,7 +2808,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2820,12 +2818,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2852,7 +2845,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111530580</v>
+        <v>111528854</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2893,10 +2886,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521691.8120759086</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R21" t="n">
-        <v>6933002.371651054</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2928,7 +2921,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2938,7 +2931,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -2970,7 +2963,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111528496</v>
+        <v>111529232</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3011,10 +3004,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521731.5804727955</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R22" t="n">
-        <v>6933001.708009128</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3046,7 +3039,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3056,7 +3049,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3083,10 +3076,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111529036</v>
+        <v>111529102</v>
       </c>
       <c r="B23" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3095,37 +3088,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
@@ -3167,7 +3152,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3177,7 +3162,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3204,10 +3194,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111529833</v>
+        <v>111529807</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3220,25 +3210,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
@@ -3280,7 +3275,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3290,7 +3285,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3317,7 +3312,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111530521</v>
+        <v>111528048</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3358,10 +3353,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521699.6992055195</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R25" t="n">
-        <v>6932998.267737272</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3393,7 +3388,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3403,7 +3398,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3430,7 +3425,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111528093</v>
+        <v>111530580</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3471,10 +3466,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521725.2807884938</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R26" t="n">
-        <v>6933116.630797192</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3506,7 +3501,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3516,7 +3511,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3656,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111529762</v>
+        <v>111530521</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,25 +3668,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521721.9246586408</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R28" t="n">
-        <v>6932922.691434066</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3769,7 +3769,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111528341</v>
+        <v>111530055</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3810,10 +3810,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>521697.8208594618</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R29" t="n">
-        <v>6933073.513530068</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3855,12 +3855,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3887,10 +3882,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111529232</v>
+        <v>111528470</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3903,21 +3898,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3928,10 +3923,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521765.8673893587</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R30" t="n">
-        <v>6932920.20856732</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3958,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3968,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111529762</v>
+        <v>111529110</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521721.9246586408</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R3" t="n">
-        <v>6932922.691434066</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111529110</v>
+        <v>111528912</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521759.7961036987</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R4" t="n">
-        <v>6933000.045767426</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111530162</v>
+        <v>111528621</v>
       </c>
       <c r="B5" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521607.0389203697</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R5" t="n">
-        <v>6932813.436312458</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111528912</v>
+        <v>111528496</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521760.8447419782</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R6" t="n">
-        <v>6932981.122429932</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111528621</v>
+        <v>111529002</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521727.0354101869</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R7" t="n">
-        <v>6932989.673796575</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1363,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111529833</v>
+        <v>111528391</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1399,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521691.0637690722</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R8" t="n">
-        <v>6932904.482706619</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,7 +1476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111528496</v>
+        <v>111528655</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1512,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521731.5804727955</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R9" t="n">
-        <v>6933001.708009128</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111529002</v>
+        <v>111528165</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1601,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521751.8847309864</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R10" t="n">
-        <v>6933007.843059707</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,12 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528391</v>
+        <v>111528341</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1714,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521709.7594058813</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R11" t="n">
-        <v>6933015.416698807</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1789,6 +1789,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1815,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111529275</v>
+        <v>111528093</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521739.0955443635</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R12" t="n">
-        <v>6932913.10752542</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1891,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1901,7 +1906,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1928,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528655</v>
+        <v>111528181</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,21 +1949,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1969,10 +1974,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521763.3891223649</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R13" t="n">
-        <v>6933016.229136354</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2004,7 +2009,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2014,7 +2019,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2041,10 +2046,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111528165</v>
+        <v>111528599</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2057,21 +2062,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2082,10 +2087,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521735.3223788696</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R14" t="n">
-        <v>6933136.54926595</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2117,7 +2122,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2127,7 +2132,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2154,10 +2159,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111528341</v>
+        <v>111529036</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2166,39 +2171,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521697.8208594618</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R15" t="n">
-        <v>6933073.513530068</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2230,7 +2243,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2240,12 +2253,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2272,7 +2280,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111528093</v>
+        <v>111528854</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2313,10 +2321,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521725.2807884938</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R16" t="n">
-        <v>6933116.630797192</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2348,7 +2356,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2358,7 +2366,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2385,10 +2398,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111529301</v>
+        <v>111529102</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2397,25 +2410,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2426,10 +2439,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521739.0955443635</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R17" t="n">
-        <v>6932913.10752542</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2472,6 +2485,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,10 +2516,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111528181</v>
+        <v>111528048</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2510,25 +2528,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2539,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521735.3223788696</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R18" t="n">
-        <v>6933136.54926595</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2574,7 +2592,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2584,7 +2602,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2611,7 +2629,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111528599</v>
+        <v>111530580</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2652,10 +2670,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521731.5804727955</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R19" t="n">
-        <v>6933001.708009128</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2687,7 +2705,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2697,7 +2715,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2724,10 +2747,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111529036</v>
+        <v>111530521</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2736,47 +2759,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521752.9121707152</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R20" t="n">
-        <v>6932992.151611731</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2808,7 +2823,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2818,7 +2833,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2845,10 +2860,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528854</v>
+        <v>111528470</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2857,25 +2872,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2886,10 +2901,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521760.8447419782</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R21" t="n">
-        <v>6932981.122429932</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2921,7 +2936,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2931,12 +2946,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2963,7 +2978,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111529232</v>
+        <v>111529275</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3004,10 +3019,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521765.8673893587</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R22" t="n">
-        <v>6932920.20856732</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3076,10 +3091,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111529102</v>
+        <v>111529301</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3088,25 +3103,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3117,10 +3132,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521752.9121707152</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R23" t="n">
-        <v>6932992.151611731</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3163,11 +3178,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3194,10 +3204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111529807</v>
+        <v>111529232</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3210,40 +3220,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521691.0637690722</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R24" t="n">
-        <v>6932904.482706619</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3275,7 +3280,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3285,7 +3290,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3312,10 +3317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111528048</v>
+        <v>111529762</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3324,25 +3329,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3353,10 +3358,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521733.8297099661</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R25" t="n">
-        <v>6933152.698685254</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3388,7 +3393,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3398,7 +3403,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3425,10 +3430,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111530580</v>
+        <v>111530162</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,25 +3442,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3466,10 +3471,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521691.8120759086</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R26" t="n">
-        <v>6933002.371651054</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3501,7 +3506,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3511,12 +3516,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3543,10 +3543,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111530091</v>
+        <v>111529833</v>
       </c>
       <c r="B27" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521631.7403301761</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R27" t="n">
-        <v>6932783.583963586</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3656,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111530521</v>
+        <v>111529807</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,39 +3668,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521699.6992055195</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R28" t="n">
-        <v>6932998.267737272</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3732,7 +3737,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3742,7 +3747,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3769,10 +3774,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111530055</v>
+        <v>111530091</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3781,25 +3786,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3882,10 +3887,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111528470</v>
+        <v>111530055</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3894,25 +3899,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3923,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521731.5804727955</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R30" t="n">
-        <v>6933001.708009128</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3958,7 +3963,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3968,12 +3973,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 13578-2023.xlsx
+++ b/artfynd/A 13578-2023.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111529110</v>
+        <v>111529762</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521759.7961036987</v>
+        <v>521721.9246586408</v>
       </c>
       <c r="R3" t="n">
-        <v>6933000.045767426</v>
+        <v>6932922.691434066</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111528912</v>
+        <v>111529110</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521760.8447419782</v>
+        <v>521759.7961036987</v>
       </c>
       <c r="R4" t="n">
-        <v>6932981.122429932</v>
+        <v>6933000.045767426</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111528621</v>
+        <v>111530162</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>521727.0354101869</v>
+        <v>521607.0389203697</v>
       </c>
       <c r="R5" t="n">
-        <v>6932989.673796575</v>
+        <v>6932813.436312458</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111528496</v>
+        <v>111528912</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521731.5804727955</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R6" t="n">
-        <v>6933001.708009128</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111529002</v>
+        <v>111528621</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521751.8847309864</v>
+        <v>521727.0354101869</v>
       </c>
       <c r="R7" t="n">
-        <v>6933007.843059707</v>
+        <v>6932989.673796575</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,12 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111528391</v>
+        <v>111529833</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1404,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521709.7594058813</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R8" t="n">
-        <v>6933015.416698807</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1439,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111528655</v>
+        <v>111528496</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1517,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521763.3891223649</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R9" t="n">
-        <v>6933016.229136354</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1552,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1589,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111528165</v>
+        <v>111529002</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521735.3223788696</v>
+        <v>521751.8847309864</v>
       </c>
       <c r="R10" t="n">
-        <v>6933136.54926595</v>
+        <v>6933007.843059707</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1665,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,7 +1670,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111528341</v>
+        <v>111528391</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1714,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>521697.8208594618</v>
+        <v>521709.7594058813</v>
       </c>
       <c r="R11" t="n">
-        <v>6933073.513530068</v>
+        <v>6933015.416698807</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1789,11 +1789,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>12:41</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111528093</v>
+        <v>111529275</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1827,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>521725.2807884938</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R12" t="n">
-        <v>6933116.630797192</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1896,7 +1891,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,7 +1901,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1933,10 +1928,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111528181</v>
+        <v>111528655</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,21 +1944,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1974,10 +1969,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>521735.3223788696</v>
+        <v>521763.3891223649</v>
       </c>
       <c r="R13" t="n">
-        <v>6933136.54926595</v>
+        <v>6933016.229136354</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2009,7 +2004,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2019,7 +2014,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2046,10 +2041,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111528599</v>
+        <v>111528165</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2062,21 +2057,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2087,10 +2082,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>521731.5804727955</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R14" t="n">
-        <v>6933001.708009128</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2122,7 +2117,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2132,7 +2127,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2159,10 +2154,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111529036</v>
+        <v>111528341</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2171,47 +2166,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>521752.9121707152</v>
+        <v>521697.8208594618</v>
       </c>
       <c r="R15" t="n">
-        <v>6932992.151611731</v>
+        <v>6933073.513530068</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2243,7 +2230,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2253,7 +2240,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>God förekomst</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2280,7 +2272,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111528854</v>
+        <v>111528093</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2321,10 +2313,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>521760.8447419782</v>
+        <v>521725.2807884938</v>
       </c>
       <c r="R16" t="n">
-        <v>6932981.122429932</v>
+        <v>6933116.630797192</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2356,7 +2348,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2366,12 +2358,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,10 +2385,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111529102</v>
+        <v>111529301</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2410,25 +2397,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2439,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>521752.9121707152</v>
+        <v>521739.0955443635</v>
       </c>
       <c r="R17" t="n">
-        <v>6932992.151611731</v>
+        <v>6932913.10752542</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2485,11 +2472,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>13:11</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2516,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111528048</v>
+        <v>111528181</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2528,25 +2510,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2557,10 +2539,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>521733.8297099661</v>
+        <v>521735.3223788696</v>
       </c>
       <c r="R18" t="n">
-        <v>6933152.698685254</v>
+        <v>6933136.54926595</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2592,7 +2574,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2602,7 +2584,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:27</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2629,7 +2611,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111530580</v>
+        <v>111528599</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2670,10 +2652,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>521691.8120759086</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R19" t="n">
-        <v>6933002.371651054</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2705,7 +2687,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2715,12 +2697,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:24</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2747,10 +2724,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111530521</v>
+        <v>111529036</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2759,39 +2736,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>521699.6992055195</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R20" t="n">
-        <v>6932998.267737272</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2823,7 +2808,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2833,7 +2818,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2860,10 +2845,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111528470</v>
+        <v>111528854</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2872,25 +2857,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2901,10 +2886,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>521731.5804727955</v>
+        <v>521760.8447419782</v>
       </c>
       <c r="R21" t="n">
-        <v>6933001.708009128</v>
+        <v>6932981.122429932</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2936,7 +2921,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2946,12 +2931,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2978,7 +2963,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111529275</v>
+        <v>111529232</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3019,10 +3004,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>521739.0955443635</v>
+        <v>521765.8673893587</v>
       </c>
       <c r="R22" t="n">
-        <v>6932913.10752542</v>
+        <v>6932920.20856732</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3091,10 +3076,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111529301</v>
+        <v>111529102</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3103,25 +3088,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3132,10 +3117,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>521739.0955443635</v>
+        <v>521752.9121707152</v>
       </c>
       <c r="R23" t="n">
-        <v>6932913.10752542</v>
+        <v>6932992.151611731</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3178,6 +3163,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>13:11</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3204,10 +3194,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111529232</v>
+        <v>111529807</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3220,35 +3210,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>521765.8673893587</v>
+        <v>521691.0637690722</v>
       </c>
       <c r="R24" t="n">
-        <v>6932920.20856732</v>
+        <v>6932904.482706619</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3280,7 +3275,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3290,7 +3285,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3317,10 +3312,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111529762</v>
+        <v>111528048</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3329,25 +3324,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3358,10 +3353,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>521721.9246586408</v>
+        <v>521733.8297099661</v>
       </c>
       <c r="R25" t="n">
-        <v>6932922.691434066</v>
+        <v>6933152.698685254</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3393,7 +3388,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3403,7 +3398,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3430,10 +3425,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111530162</v>
+        <v>111530580</v>
       </c>
       <c r="B26" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3442,25 +3437,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3471,10 +3466,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>521607.0389203697</v>
+        <v>521691.8120759086</v>
       </c>
       <c r="R26" t="n">
-        <v>6932813.436312458</v>
+        <v>6933002.371651054</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3506,7 +3501,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3516,7 +3511,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3543,10 +3543,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111529833</v>
+        <v>111530091</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>521691.0637690722</v>
+        <v>521631.7403301761</v>
       </c>
       <c r="R27" t="n">
-        <v>6932904.482706619</v>
+        <v>6932783.583963586</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3656,10 +3656,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111529807</v>
+        <v>111530521</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,44 +3668,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ånge, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>521691.0637690722</v>
+        <v>521699.6992055195</v>
       </c>
       <c r="R28" t="n">
-        <v>6932904.482706619</v>
+        <v>6932998.267737272</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3737,7 +3732,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3747,7 +3742,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3774,10 +3769,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111530091</v>
+        <v>111530055</v>
       </c>
       <c r="B29" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3786,25 +3781,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3887,10 +3882,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111530055</v>
+        <v>111528470</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3899,25 +3894,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3928,10 +3923,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>521631.7403301761</v>
+        <v>521731.5804727955</v>
       </c>
       <c r="R30" t="n">
-        <v>6932783.583963586</v>
+        <v>6933001.708009128</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3963,7 +3958,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3973,7 +3968,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
